--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4060" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="2980" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="11360" yWindow="1580" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -99,7 +99,43 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_3:1,resource:stoneClass_3:1,resource:ironClass_3:1,resource:foodClass_3:1,resource:coinClass_2:1,resource:casinoTokenClass_1:1,speedup:speedup_3:2,speedup:speedup_4:1</t>
+    <t>resource:woodClass_3:10,resource:stoneClass_3:10,resource:ironClass_3:10,resource:foodClass_3:10,resource:coinClass_3:10,speedup:speedup_1:20,speedup:speedup_2:10,speedup:speedup_3:10,speedup:speedup_4:5,speedup:speedup_5:2,special:dragonChest_1:2,special:dragonChest_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_allianceRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_2:20,resource:stoneClass_2:20,resource:ironClass_2:20,resource:foodClass_2:20,resource:coinClass_2:20,speedup:speedup_1:40,speedup:speedup_2:20,speedup:speedup_3:20,speedup:speedup_4:4,special:dragonChest_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:20,resource:stoneClass_3:20,resource:ironClass_3:20,resource:foodClass_3:20,resource:coinClass_3:20,speedup:speedup_1:40,speedup:speedup_2:20,speedup:speedup_3:20,speedup:speedup_4:10,speedup:speedup_5:4,special:dragonChest_1:4,special:dragonChest_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:40,resource:stoneClass_3:40,resource:ironClass_3:40,resource:foodClass_3:40,resource:coinClass_3:40,speedup:speedup_1:80,speedup:speedup_2:40,speedup:speedup_3:40,speedup:speedup_4:20,speedup:speedup_5:8,buff:woodBonus_1:2,buff:stoneBonus_1:2,buff:ironBonus_1:2,buff:foodBonus_1:2,buff:coinBonus_1:2,special:dragonChest_2:5,special:dragonChest_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_4:20,resource:stoneClass_4:20,resource:ironClass_4:20,resource:foodClass_4:20,resource:coinClass_4:20,speedup:speedup_2:40,speedup:speedup_3:40,speedup:speedup_4:40,speedup:speedup_5:40,speedup:speedup_6:10,buff:woodBonus_1:4,buff:stoneBonus_1:4,buff:ironBonus_1:4,buff:foodBonus_1:4,buff:coinBonus_1:4,buff:unitHpBonus_1:4,buff:infantryAtkBonus_1:4,buff:archerAtkBonus_1:4,buff:cavalryAtkBonus_1:4,siegeAtkBonus_1:4,special:dragonChest_2:5,special:dragonChest_3:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +279,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="530">
+  <cellStyleXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -258,6 +294,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -809,7 +857,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="530">
+  <cellStyles count="542">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1077,6 +1125,12 @@
     <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1337,6 +1391,12 @@
     <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1789,7 +1849,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1827,7 +1887,9 @@
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
@@ -1847,10 +1909,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="8">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
@@ -1870,10 +1932,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="9">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1">
@@ -1893,10 +1958,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="8">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
@@ -1916,10 +1984,13 @@
         <v>12</v>
       </c>
       <c r="F5" s="9">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
@@ -1939,10 +2010,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="9">
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">

--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6040" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -99,7 +99,43 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_3:1,resource:stoneClass_3:1,resource:ironClass_3:1,resource:foodClass_3:1,resource:coinClass_2:1,resource:casinoTokenClass_1:1,speedup:speedup_3:2,speedup:speedup_4:1</t>
+    <t>resource:woodClass_3:10,resource:stoneClass_3:10,resource:ironClass_3:10,resource:foodClass_3:10,resource:coinClass_3:10,speedup:speedup_1:20,speedup:speedup_2:10,speedup:speedup_3:10,speedup:speedup_4:5,speedup:speedup_5:2,special:dragonChest_1:2,special:dragonChest_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_allianceRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_2:20,resource:stoneClass_2:20,resource:ironClass_2:20,resource:foodClass_2:20,resource:coinClass_2:20,speedup:speedup_1:40,speedup:speedup_2:20,speedup:speedup_3:20,speedup:speedup_4:4,special:dragonChest_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:20,resource:stoneClass_3:20,resource:ironClass_3:20,resource:foodClass_3:20,resource:coinClass_3:20,speedup:speedup_1:40,speedup:speedup_2:20,speedup:speedup_3:20,speedup:speedup_4:10,speedup:speedup_5:4,special:dragonChest_1:4,special:dragonChest_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:40,resource:stoneClass_3:40,resource:ironClass_3:40,resource:foodClass_3:40,resource:coinClass_3:40,speedup:speedup_1:80,speedup:speedup_2:40,speedup:speedup_3:40,speedup:speedup_4:20,speedup:speedup_5:8,buff:woodBonus_1:2,buff:stoneBonus_1:2,buff:ironBonus_1:2,buff:foodBonus_1:2,buff:coinBonus_1:2,special:dragonChest_2:5,special:dragonChest_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_4:20,resource:stoneClass_4:20,resource:ironClass_4:20,resource:foodClass_4:20,resource:coinClass_4:20,speedup:speedup_2:40,speedup:speedup_3:40,speedup:speedup_4:40,speedup:speedup_5:40,speedup:speedup_6:10,buff:woodBonus_1:4,buff:stoneBonus_1:4,buff:ironBonus_1:4,buff:foodBonus_1:4,buff:coinBonus_1:4,buff:unitHpBonus_1:4,buff:infantryAtkBonus_1:4,buff:archerAtkBonus_1:4,buff:cavalryAtkBonus_1:4,siegeAtkBonus_1:4,special:dragonChest_2:5,special:dragonChest_3:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +279,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="530">
+  <cellStyleXfs count="544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -258,6 +294,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -809,7 +859,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="530">
+  <cellStyles count="544">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1077,6 +1127,13 @@
     <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1337,6 +1394,13 @@
     <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1789,7 +1853,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1827,7 +1891,9 @@
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
@@ -1847,10 +1913,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="8">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
@@ -1870,10 +1936,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="9">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1">
@@ -1893,10 +1962,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="8">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
@@ -1916,10 +1988,13 @@
         <v>12</v>
       </c>
       <c r="F5" s="9">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
@@ -1939,10 +2014,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="9">
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">

--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="1580" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6040" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -279,7 +279,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="542">
+  <cellStyleXfs count="544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -294,6 +294,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -857,7 +859,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="542">
+  <cellStyles count="544">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1131,6 +1133,7 @@
     <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1397,6 +1400,7 @@
     <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1849,7 +1853,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5160" yWindow="1560" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -135,7 +135,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_4:20,resource:stoneClass_4:20,resource:ironClass_4:20,resource:foodClass_4:20,resource:coinClass_4:20,speedup:speedup_2:40,speedup:speedup_3:40,speedup:speedup_4:40,speedup:speedup_5:40,speedup:speedup_6:10,buff:woodBonus_1:4,buff:stoneBonus_1:4,buff:ironBonus_1:4,buff:foodBonus_1:4,buff:coinBonus_1:4,buff:unitHpBonus_1:4,buff:infantryAtkBonus_1:4,buff:archerAtkBonus_1:4,buff:cavalryAtkBonus_1:4,siegeAtkBonus_1:4,special:dragonChest_2:5,special:dragonChest_3:5</t>
+    <t>resource:woodClass_4:20,resource:stoneClass_4:20,resource:ironClass_4:20,resource:foodClass_4:20,resource:coinClass_4:20,speedup:speedup_2:40,speedup:speedup_3:40,speedup:speedup_4:40,speedup:speedup_5:40,speedup:speedup_6:10,buff:woodBonus_1:4,buff:stoneBonus_1:4,buff:ironBonus_1:4,buff:foodBonus_1:4,buff:coinBonus_1:4,buff:unitHpBonus_1:4,buff:infantryAtkBonus_1:4,buff:archerAtkBonus_1:4,buff:cavalryAtkBonus_1:4,buff:siegeAtkBonus_1:4,special:dragonChest_2:5,special:dragonChest_3:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1852,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1560" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36820" windowHeight="16060" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -99,18 +99,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_3:10,resource:stoneClass_3:10,resource:ironClass_3:10,resource:foodClass_3:10,resource:coinClass_3:10,speedup:speedup_1:20,speedup:speedup_2:10,speedup:speedup_3:10,speedup:speedup_4:5,speedup:speedup_5:2,special:dragonChest_1:2,special:dragonChest_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_allianceRewards</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_2:20,resource:stoneClass_2:20,resource:ironClass_2:20,resource:foodClass_2:20,resource:coinClass_2:20,speedup:speedup_1:40,speedup:speedup_2:20,speedup:speedup_3:20,speedup:speedup_4:4,special:dragonChest_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>special:chest_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -127,15 +119,21 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_3:20,resource:stoneClass_3:20,resource:ironClass_3:20,resource:foodClass_3:20,resource:coinClass_3:20,speedup:speedup_1:40,speedup:speedup_2:20,speedup:speedup_3:20,speedup:speedup_4:10,speedup:speedup_5:4,special:dragonChest_1:4,special:dragonChest_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:40,resource:stoneClass_3:40,resource:ironClass_3:40,resource:foodClass_3:40,resource:coinClass_3:40,speedup:speedup_1:80,speedup:speedup_2:40,speedup:speedup_3:40,speedup:speedup_4:20,speedup:speedup_5:8,buff:woodBonus_1:2,buff:stoneBonus_1:2,buff:ironBonus_1:2,buff:foodBonus_1:2,buff:coinBonus_1:2,special:dragonChest_2:5,special:dragonChest_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:20,resource:stoneClass_4:20,resource:ironClass_4:20,resource:foodClass_4:20,resource:coinClass_4:20,speedup:speedup_2:40,speedup:speedup_3:40,speedup:speedup_4:40,speedup:speedup_5:40,speedup:speedup_6:10,buff:woodBonus_1:4,buff:stoneBonus_1:4,buff:ironBonus_1:4,buff:foodBonus_1:4,buff:coinBonus_1:4,buff:unitHpBonus_1:4,buff:infantryAtkBonus_1:4,buff:archerAtkBonus_1:4,buff:cavalryAtkBonus_1:4,buff:siegeAtkBonus_1:4,special:dragonChest_2:5,special:dragonChest_3:5</t>
+    <t>resource:woodClass_4:2,resource:stoneClass_4:2,resource:ironClass_4:2,resource:foodClass_4:2,resource:coinClass_4:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,special:dragonChest_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_5:2,resource:stoneClass_5:2,resource:ironClass_5:2,resource:foodClass_5:2,resource:coinClass_5:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2,special:dragonChest_1:2,special:dragonChest_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_6:2,resource:stoneClass_6:2,resource:ironClass_6:2,resource:foodClass_6:2,resource:coinClass_6:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2,speedup:speedup_6:2,special:dragonChest_1:5,special:dragonChest_2:5</t>
+  </si>
+  <si>
+    <t>resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:coinClass_6:5,speedup:speedup_2:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,special:dragonChest_2:5,special:dragonChest_3:5</t>
+  </si>
+  <si>
+    <t>resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:,buff:siegeAtkBonus_1:5,special:dragonChest_2:10,special:dragonChest_3:10</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="544">
+  <cellStyleXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -294,6 +292,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -859,7 +869,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="544">
+  <cellStyles count="556">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1134,6 +1144,12 @@
     <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1401,6 +1417,12 @@
     <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1852,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1861,8 +1883,8 @@
     <col min="1" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="6"/>
     <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="5"/>
-    <col min="7" max="7" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="16.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="199.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="5"/>
     <col min="9" max="10" width="20.6640625" style="1"/>
     <col min="11" max="11" width="20.6640625" style="5"/>
@@ -1892,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -1916,7 +1938,7 @@
         <v>2500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
@@ -1939,10 +1961,10 @@
         <v>5500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1">
@@ -1968,7 +1990,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
@@ -1994,7 +2016,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
@@ -2020,7 +2042,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">

--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36820" windowHeight="16060" tabRatio="181"/>
+    <workbookView xWindow="260" yWindow="1480" windowWidth="36820" windowHeight="16060" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>product__3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_productId</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -135,6 +131,22 @@
   <si>
     <t>resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:,buff:siegeAtkBonus_1:5,special:dragonChest_2:10,special:dragonChest_3:10</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.2500dragoncoins</t>
+  </si>
+  <si>
+    <t>com.dragonfall.5500dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dragonfall.12000dragoncoins</t>
+  </si>
+  <si>
+    <t>com.dragonfall.35000dragoncoins</t>
+  </si>
+  <si>
+    <t>com.dragonfall.80000dragoncoins</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1887,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1899,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -1908,13 +1920,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -1926,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6">
         <v>4.99</v>
@@ -1938,7 +1950,7 @@
         <v>2500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
@@ -1949,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6">
         <v>9.99</v>
@@ -1961,10 +1973,10 @@
         <v>5500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1">
@@ -1975,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6">
         <v>19.989999999999998</v>
@@ -1987,10 +1999,10 @@
         <v>12000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
@@ -2001,7 +2013,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6">
         <v>49.99</v>
@@ -2013,10 +2025,10 @@
         <v>35000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
@@ -2027,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6">
         <v>99.99</v>
@@ -2039,10 +2051,10 @@
         <v>80000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">

--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1480" windowWidth="36820" windowHeight="16060" tabRatio="181"/>
+    <workbookView xWindow="680" yWindow="240" windowWidth="36820" windowHeight="16060" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -129,10 +129,6 @@
     <t>resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:coinClass_6:5,speedup:speedup_2:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,special:dragonChest_2:5,special:dragonChest_3:5</t>
   </si>
   <si>
-    <t>resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:,buff:siegeAtkBonus_1:5,special:dragonChest_2:10,special:dragonChest_3:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>com.dragonfall.2500dragoncoins</t>
   </si>
   <si>
@@ -147,6 +143,9 @@
   </si>
   <si>
     <t>com.dragonfall.80000dragoncoins</t>
+  </si>
+  <si>
+    <t>resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5,special:dragonChest_2:10,special:dragonChest_3:10</t>
   </si>
 </sst>
 </file>
@@ -289,7 +288,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="556">
+  <cellStyleXfs count="558">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +303,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -881,7 +882,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="556">
+  <cellStyles count="558">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1162,6 +1163,7 @@
     <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1435,6 +1437,7 @@
     <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1886,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1938,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6">
         <v>4.99</v>
@@ -1961,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6">
         <v>9.99</v>
@@ -1987,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6">
         <v>19.989999999999998</v>
@@ -2013,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6">
         <v>49.99</v>
@@ -2039,7 +2042,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6">
         <v>99.99</v>
@@ -2051,7 +2054,7 @@
         <v>80000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>21</v>

--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="240" windowWidth="36820" windowHeight="16060" tabRatio="181"/>
+    <workbookView xWindow="980" yWindow="0" windowWidth="36820" windowHeight="16060" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -115,20 +115,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_4:2,resource:stoneClass_4:2,resource:ironClass_4:2,resource:foodClass_4:2,resource:coinClass_4:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,special:dragonChest_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_5:2,resource:stoneClass_5:2,resource:ironClass_5:2,resource:foodClass_5:2,resource:coinClass_5:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2,special:dragonChest_1:2,special:dragonChest_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_6:2,resource:stoneClass_6:2,resource:ironClass_6:2,resource:foodClass_6:2,resource:coinClass_6:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2,speedup:speedup_6:2,special:dragonChest_1:5,special:dragonChest_2:5</t>
-  </si>
-  <si>
-    <t>resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:coinClass_6:5,speedup:speedup_2:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,special:dragonChest_2:5,special:dragonChest_3:5</t>
-  </si>
-  <si>
     <t>com.dragonfall.2500dragoncoins</t>
   </si>
   <si>
@@ -145,7 +131,19 @@
     <t>com.dragonfall.80000dragoncoins</t>
   </si>
   <si>
-    <t>resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5,special:dragonChest_2:10,special:dragonChest_3:10</t>
+    <t>special:dragonChest_1:5,resource:woodClass_4:2,resource:stoneClass_4:2,resource:ironClass_4:2,resource:foodClass_4:2,resource:coinClass_4:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2</t>
+  </si>
+  <si>
+    <t>special:dragonChest_2:2,special:dragonChest_1:5,resource:woodClass_5:2,resource:stoneClass_5:2,resource:ironClass_5:2,resource:foodClass_5:2,resource:coinClass_5:2,speedup:speedup_1:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2</t>
+  </si>
+  <si>
+    <t>special:dragonChest_2:5,special:dragonChest_1:10,resource:woodClass_6:2,resource:stoneClass_6:2,resource:ironClass_6:2,resource:foodClass_6:2,resource:coinClass_6:2,speedup:speedup_2:2,speedup:speedup_3:2,speedup:speedup_4:2,speedup:speedup_5:2,speedup:speedup_6:2</t>
+  </si>
+  <si>
+    <t>special:dragonChest_3:5,special:dragonChest_2:5,special:dragonChest_1:20,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:coinClass_6:5,speedup:speedup_2:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5</t>
+  </si>
+  <si>
+    <t>special:dragonChest_3:10,special:dragonChest_2:20,special:dragonChest_1:30,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:,buff:siegeAtkBonus_1:5</t>
   </si>
 </sst>
 </file>
@@ -288,7 +286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="558">
+  <cellStyleXfs count="568">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -851,8 +849,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,8 +889,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="558">
+  <cellStyles count="568">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1164,6 +1175,11 @@
     <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1438,6 +1454,11 @@
     <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1889,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1899,7 +1920,7 @@
     <col min="4" max="4" width="20.6640625" style="6"/>
     <col min="5" max="5" width="20.6640625" style="1"/>
     <col min="6" max="6" width="16.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="199.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="217.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="5"/>
     <col min="9" max="10" width="20.6640625" style="1"/>
     <col min="11" max="11" width="20.6640625" style="5"/>
@@ -1941,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6">
         <v>4.99</v>
@@ -1952,8 +1973,8 @@
       <c r="F2" s="8">
         <v>2500</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
@@ -1964,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6">
         <v>9.99</v>
@@ -1975,8 +1996,8 @@
       <c r="F3" s="9">
         <v>5500</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
+      <c r="G3" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>18</v>
@@ -1990,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6">
         <v>19.989999999999998</v>
@@ -2001,8 +2022,8 @@
       <c r="F4" s="8">
         <v>12000</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
+      <c r="G4" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>19</v>
@@ -2016,7 +2037,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6">
         <v>49.99</v>
@@ -2027,8 +2048,8 @@
       <c r="F5" s="9">
         <v>35000</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
+      <c r="G5" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>20</v>
@@ -2042,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6">
         <v>99.99</v>
@@ -2053,7 +2074,7 @@
       <c r="F6" s="9">
         <v>80000</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="5" t="s">

--- a/gameData/shared/StoreItems.xlsx
+++ b/gameData/shared/StoreItems.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="0" windowWidth="36820" windowHeight="16060" tabRatio="181"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="181"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -143,7 +143,8 @@
     <t>special:dragonChest_3:5,special:dragonChest_2:5,special:dragonChest_1:20,resource:woodClass_6:5,resource:stoneClass_6:5,resource:ironClass_6:5,resource:foodClass_6:5,resource:coinClass_6:5,speedup:speedup_2:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5</t>
   </si>
   <si>
-    <t>special:dragonChest_3:10,special:dragonChest_2:20,special:dragonChest_1:30,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:,buff:siegeAtkBonus_1:5</t>
+    <t>special:dragonChest_3:10,special:dragonChest_2:20,special:dragonChest_1:30,resource:woodClass_7:5,resource:stoneClass_7:5,resource:ironClass_7:5,resource:foodClass_7:5,resource:coinClass_7:5,speedup:speedup_3:5,speedup:speedup_4:5,speedup:speedup_5:5,speedup:speedup_6:5,speedup:speedup_7:5,buff:woodBonus_1:5,buff:stoneBonus_1:5,buff:ironBonus_1:5,buff:foodBonus_1:5,buff:coinBonus_1:5,buff:unitHpBonus_1:5,buff:infantryAtkBonus_1:5,buff:archerAtkBonus_1:5,buff:cavalryAtkBonus_1:5,buff:siegeAtkBonus_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -286,7 +287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="568">
+  <cellStyleXfs count="586">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -301,6 +302,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -893,7 +912,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="568">
+  <cellStyles count="586">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1180,6 +1199,15 @@
     <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1459,6 +1487,15 @@
     <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1911,7 +1948,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
